--- a/src/main/resources/org/germain/docs/modelcda.xlsx
+++ b/src/main/resources/org/germain/docs/modelcda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/germain/IdeaProjects/affichage/src/main/resources/org/germain/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsipi\IdeaProjects\affichage\src\main\resources\org\germain\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C39FD35-051A-F94F-8C3A-4DF1FBB35E2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8965A3-AC70-4CF1-835B-F19C6722485C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Affiche Jour 1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -120,6 +120,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -193,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -216,6 +223,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -587,42 +597,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:K14"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" customWidth="1"/>
-    <col min="6" max="6" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:11" ht="47" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="4:11" ht="47.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="4:11" ht="47" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="9" t="s">
+    <row r="5" spans="4:11" ht="47.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="7" spans="4:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="9" spans="4:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:11" ht="21" x14ac:dyDescent="0.35">
       <c r="D9" s="7" t="s">
         <v>0</v>
       </c>
@@ -630,8 +640,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="4:11" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="4:11" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
         <v>2</v>
       </c>
@@ -647,7 +657,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="4:11" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:11" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
@@ -658,7 +668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="4:11" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:11" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="4" t="s">
         <v>6</v>
       </c>
@@ -669,7 +679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="4:11" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:11" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
@@ -686,9 +696,8 @@
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D5:F5"/>
   </mergeCells>
-  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>